--- a/table_partition/table_partition調査.xlsx
+++ b/table_partition/table_partition調査.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9ADE8B1-8752-4CB8-9161-2639C51D56CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F782C42C-0714-425A-B7C6-434C09181BD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="163">
   <si>
     <t>1)DB作成</t>
     <rPh sb="4" eb="6">
@@ -30,16 +30,6 @@
   </si>
   <si>
     <t>(1 行)</t>
-  </si>
-  <si>
-    <t>テーブルのスキーマ動作確認</t>
-    <rPh sb="9" eb="11">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>psql -U postgres -p5432 -d postgres -c "CREATE DATABASE testdb WITH TEMPLATE = template0 ENCODING = 'UTF8' LC_COLLATE = 'Japanese_Japan.932' LC_CTYPE = 'Japanese_Japan.932';"</t>
@@ -663,9 +653,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>psql -U postgres -p 5432 -d testdb -c "ALTER TABLE interval_half_year ADD COLUMN reservation_time tsrange;"</t>
-  </si>
-  <si>
     <t>psql -U postgres -p 5432 -d testdb -c "ALTER TABLE interval_half_year ADD EXCLUDE USING GIST (reservation_time WITH &amp;&amp;);;"</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -731,6 +718,164 @@
   </si>
   <si>
     <t>■メモ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テーブルのパーティション動作確認</t>
+    <rPh sb="12" eb="14">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d testdb -c "ALTER TABLE interval_half_year ADD COLUMN reservation_time tsrange;"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d testdb -c "\d+ accounts_tbl"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                      パーティションテーブル"public.accounts_tbl"</t>
+  </si>
+  <si>
+    <t>------------------+-----------------------------+----------+---------------+------------+------------+----------+------</t>
+  </si>
+  <si>
+    <t>パーティションキー: RANGE (last_active_date)</t>
+  </si>
+  <si>
+    <t>パーティション: interval_year FOR VALUES FROM ('2020-12-30 21:41:27.039547') TO ('2021-06-29 21:41:27.039547')</t>
+  </si>
+  <si>
+    <t>15)パーティションの分割条件は以下のように確認できます</t>
+    <rPh sb="11" eb="13">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        列        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           タイプ            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 照合順序 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Null 値を許容 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> デフォルト </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ストレージ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 統計目標 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 説明</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> aid              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> integer                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> not null      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> plain      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bid              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> abalance         </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> filler           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> character(84)               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> extended   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> last_active_date </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> timestamp without time zone </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> now()      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> reservation_time </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tsrange                     </t>
+  </si>
+  <si>
+    <t>ここまで確認して、以下のURLを見つけました。</t>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.ntt-tx.co.jp/column/postgresql_blog/20171005/</t>
+  </si>
+  <si>
+    <t>丁寧で分かりやすいです。良書を書いている著者の記事でした。</t>
+    <rPh sb="0" eb="2">
+      <t>テイネイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>リョウショ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チョシャ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キジ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1167,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F26F7EB-7B22-4BC6-9C6E-17EEF59BEDFB}">
-  <dimension ref="B1:K157"/>
+  <dimension ref="B1:K176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A14" sqref="A14:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1193,18 +1338,18 @@
   <sheetData>
     <row r="1" spans="2:6" s="1" customFormat="1" ht="28.5">
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -1212,37 +1357,37 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -1253,62 +1398,62 @@
     </row>
     <row r="15" spans="2:6" s="5" customFormat="1">
       <c r="B15" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="2:11" s="5" customFormat="1">
       <c r="B18" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:11" s="5" customFormat="1">
       <c r="B19" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" s="6"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="2:11" s="5" customFormat="1">
       <c r="B22" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="2:11" s="5" customFormat="1">
       <c r="B23" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="2:11" s="5" customFormat="1">
       <c r="B24" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="2:11" s="5" customFormat="1">
       <c r="B25" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F25" s="6"/>
     </row>
     <row r="27" spans="2:11" ht="19.5" thickBot="1">
       <c r="B27" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="19.5" thickBot="1">
       <c r="B28" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -1317,15 +1462,15 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="K28" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="19.5" thickBot="1">
       <c r="B29" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -1333,12 +1478,12 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="K29" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="19.5" thickBot="1">
       <c r="B30" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1347,15 +1492,15 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="K30" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="2:11" ht="19.5" thickBot="1">
       <c r="B31" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1363,15 +1508,15 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="K31" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="19.5" thickBot="1">
       <c r="B32" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -1379,12 +1524,12 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="K32" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="19.5" thickBot="1">
       <c r="B33" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -1393,111 +1538,111 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="K33" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="19.5" thickBot="1">
       <c r="K34" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="19.5" thickBot="1">
       <c r="K35" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="2:11" ht="19.5" thickBot="1">
       <c r="K36" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="2:11" ht="19.5" thickBot="1">
       <c r="K37" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="2:11" ht="19.5" thickBot="1">
       <c r="K38" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="2:11">
       <c r="B41" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="2:11" s="5" customFormat="1">
       <c r="B42" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="2:11" s="5" customFormat="1">
       <c r="B43" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="2:11" s="5" customFormat="1">
       <c r="B44" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="2:11" s="5" customFormat="1">
       <c r="B45" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F45" s="6"/>
     </row>
     <row r="47" spans="2:11">
       <c r="B47" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="2:11" s="5" customFormat="1">
       <c r="B48" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="2:6" s="5" customFormat="1">
       <c r="B49" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F49" s="6"/>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="2:6" s="5" customFormat="1">
       <c r="B52" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="2:6" s="5" customFormat="1">
       <c r="B53" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="D53" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="E53" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="F53" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="54" spans="2:6" s="5" customFormat="1">
       <c r="B54" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F54" s="6"/>
     </row>
@@ -1512,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="E55" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="56" spans="2:6" s="5" customFormat="1">
@@ -1529,44 +1674,44 @@
         <v>0</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="2:6" s="5" customFormat="1">
       <c r="B57" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F57" s="6"/>
     </row>
     <row r="58" spans="2:6" s="5" customFormat="1">
       <c r="B58" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F58" s="6"/>
     </row>
     <row r="59" spans="2:6" s="5" customFormat="1">
       <c r="B59" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="E59" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="F59" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="60" spans="2:6" s="5" customFormat="1">
       <c r="B60" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F60" s="6"/>
     </row>
@@ -1581,10 +1726,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="62" spans="2:6" s="5" customFormat="1">
@@ -1595,30 +1740,30 @@
     </row>
     <row r="63" spans="2:6" s="5" customFormat="1">
       <c r="B63" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F63" s="6"/>
     </row>
     <row r="64" spans="2:6" s="5" customFormat="1">
       <c r="B64" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="D64" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="E64" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E64" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="F64" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="2:6" s="5" customFormat="1">
       <c r="B65" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F65" s="6"/>
     </row>
@@ -1633,10 +1778,10 @@
         <v>0</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="2:6" s="5" customFormat="1">
@@ -1647,60 +1792,60 @@
     </row>
     <row r="69" spans="2:6">
       <c r="B69" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="2:6" s="5" customFormat="1">
       <c r="B70" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F70" s="6"/>
     </row>
     <row r="71" spans="2:6" s="5" customFormat="1">
       <c r="B71" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F71" s="6"/>
     </row>
     <row r="72" spans="2:6" s="5" customFormat="1">
       <c r="B72" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F72" s="6"/>
     </row>
     <row r="73" spans="2:6" s="5" customFormat="1">
       <c r="B73" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F73" s="6"/>
     </row>
     <row r="74" spans="2:6" s="5" customFormat="1">
       <c r="B74" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F74" s="6"/>
     </row>
     <row r="75" spans="2:6" s="5" customFormat="1">
       <c r="B75" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F75" s="6"/>
     </row>
     <row r="76" spans="2:6" s="5" customFormat="1">
       <c r="B76" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F76" s="6"/>
     </row>
     <row r="77" spans="2:6" s="5" customFormat="1">
       <c r="B77" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F77" s="6"/>
     </row>
     <row r="78" spans="2:6" s="5" customFormat="1">
       <c r="B78" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F78" s="6"/>
     </row>
@@ -1709,73 +1854,73 @@
     </row>
     <row r="80" spans="2:6" s="5" customFormat="1">
       <c r="B80" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F80" s="6"/>
     </row>
     <row r="81" spans="2:6" s="5" customFormat="1">
       <c r="B81" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F81" s="6"/>
     </row>
     <row r="82" spans="2:6" s="5" customFormat="1">
       <c r="B82" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F82" s="6"/>
     </row>
     <row r="83" spans="2:6" s="5" customFormat="1">
       <c r="B83" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F83" s="6"/>
     </row>
     <row r="84" spans="2:6" s="5" customFormat="1">
       <c r="B84" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F84" s="6"/>
     </row>
     <row r="85" spans="2:6" s="5" customFormat="1">
       <c r="B85" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F85" s="6"/>
     </row>
     <row r="86" spans="2:6" s="5" customFormat="1">
       <c r="B86" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F86" s="6"/>
     </row>
     <row r="87" spans="2:6" s="5" customFormat="1">
       <c r="B87" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F87" s="6"/>
     </row>
     <row r="88" spans="2:6" s="5" customFormat="1">
       <c r="B88" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F88" s="6"/>
     </row>
     <row r="89" spans="2:6" s="5" customFormat="1">
       <c r="B89" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F89" s="6"/>
     </row>
     <row r="90" spans="2:6" s="5" customFormat="1">
       <c r="B90" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F90" s="6"/>
     </row>
     <row r="91" spans="2:6" s="5" customFormat="1">
       <c r="B91" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F91" s="6"/>
     </row>
@@ -1784,78 +1929,78 @@
     </row>
     <row r="93" spans="2:6" s="5" customFormat="1">
       <c r="B93" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F93" s="6"/>
     </row>
     <row r="94" spans="2:6" s="5" customFormat="1">
       <c r="B94" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F94" s="6"/>
     </row>
     <row r="95" spans="2:6" s="5" customFormat="1">
       <c r="B95" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F95" s="6"/>
     </row>
     <row r="96" spans="2:6" s="5" customFormat="1">
       <c r="B96" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F96" s="6"/>
     </row>
     <row r="97" spans="2:6" s="5" customFormat="1">
       <c r="B97" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F97" s="6"/>
     </row>
     <row r="98" spans="2:6" s="5" customFormat="1">
       <c r="B98" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F98" s="6"/>
     </row>
     <row r="99" spans="2:6" s="5" customFormat="1">
       <c r="B99" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F99" s="6"/>
     </row>
     <row r="100" spans="2:6" s="5" customFormat="1">
       <c r="B100" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F100" s="6"/>
     </row>
     <row r="101" spans="2:6" s="5" customFormat="1">
       <c r="B101" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F101" s="6"/>
     </row>
     <row r="102" spans="2:6" s="5" customFormat="1">
       <c r="B102" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F102" s="6"/>
     </row>
     <row r="104" spans="2:6">
       <c r="B104" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="2:6" s="5" customFormat="1">
       <c r="B105" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F105" s="6"/>
     </row>
     <row r="106" spans="2:6" s="5" customFormat="1">
       <c r="B106" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F106" s="6"/>
     </row>
@@ -1864,30 +2009,30 @@
     </row>
     <row r="108" spans="2:6" s="5" customFormat="1">
       <c r="B108" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F108" s="6"/>
     </row>
     <row r="109" spans="2:6" s="5" customFormat="1">
       <c r="B109" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="D109" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="E109" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="F109" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="F109" s="6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="110" spans="2:6" s="5" customFormat="1">
       <c r="B110" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F110" s="6"/>
     </row>
@@ -1902,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112" spans="2:6" s="5" customFormat="1">
@@ -1919,41 +2064,41 @@
         <v>0</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="113" spans="2:6" s="5" customFormat="1">
       <c r="B113" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F113" s="6"/>
     </row>
     <row r="115" spans="2:6">
       <c r="B115" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="116" spans="2:6" s="5" customFormat="1">
       <c r="B116" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F116" s="6"/>
     </row>
     <row r="117" spans="2:6" s="5" customFormat="1">
       <c r="B117" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C117" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="F117" s="6"/>
     </row>
     <row r="118" spans="2:6" s="5" customFormat="1">
       <c r="B118" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F118" s="6"/>
     </row>
@@ -1962,7 +2107,7 @@
         <v>25439</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F119" s="6"/>
     </row>
@@ -1977,22 +2122,22 @@
     </row>
     <row r="122" spans="2:6" s="5" customFormat="1">
       <c r="B122" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F122" s="6"/>
     </row>
     <row r="123" spans="2:6" s="5" customFormat="1">
       <c r="B123" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F123" s="6"/>
     </row>
     <row r="124" spans="2:6" s="5" customFormat="1">
       <c r="B124" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F124" s="6"/>
     </row>
@@ -2001,7 +2146,7 @@
         <v>25443</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F125" s="6"/>
     </row>
@@ -2013,58 +2158,58 @@
     </row>
     <row r="128" spans="2:6">
       <c r="B128" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="129" spans="2:6" s="5" customFormat="1">
       <c r="B129" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F129" s="6"/>
     </row>
     <row r="130" spans="2:6" s="5" customFormat="1">
       <c r="B130" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F130" s="6"/>
     </row>
     <row r="132" spans="2:6">
       <c r="B132" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="133" spans="2:6" s="5" customFormat="1">
       <c r="B133" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F133" s="6"/>
     </row>
     <row r="134" spans="2:6" s="5" customFormat="1">
       <c r="B134" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F134" s="6"/>
     </row>
     <row r="135" spans="2:6" s="5" customFormat="1">
       <c r="B135" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F135" s="6"/>
     </row>
     <row r="137" spans="2:6">
       <c r="B137" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="138" spans="2:6" s="5" customFormat="1">
       <c r="B138" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F138" s="6"/>
     </row>
     <row r="139" spans="2:6" s="5" customFormat="1">
       <c r="B139" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F139" s="6"/>
     </row>
@@ -2073,84 +2218,298 @@
     </row>
     <row r="141" spans="2:6" s="5" customFormat="1">
       <c r="B141" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F141" s="6"/>
     </row>
     <row r="142" spans="2:6" s="5" customFormat="1">
       <c r="B142" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F142" s="6"/>
     </row>
     <row r="143" spans="2:6" s="5" customFormat="1">
       <c r="B143" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F143" s="6"/>
     </row>
-    <row r="145" spans="2:6">
+    <row r="145" spans="2:9">
       <c r="B145" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" s="5" customFormat="1">
+      <c r="B146" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F146" s="6"/>
+    </row>
+    <row r="147" spans="2:9" s="5" customFormat="1">
+      <c r="B147" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F147" s="6"/>
+    </row>
+    <row r="148" spans="2:9" s="5" customFormat="1">
+      <c r="B148" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F148" s="6"/>
+    </row>
+    <row r="149" spans="2:9" s="5" customFormat="1">
+      <c r="B149" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F149" s="6"/>
+    </row>
+    <row r="151" spans="2:9">
+      <c r="B151" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" s="5" customFormat="1">
+      <c r="B152" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F152" s="6"/>
+    </row>
+    <row r="153" spans="2:9" s="5" customFormat="1">
+      <c r="B153" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F153" s="6"/>
+    </row>
+    <row r="154" spans="2:9" s="5" customFormat="1">
+      <c r="B154" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I154" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" s="5" customFormat="1">
+      <c r="B155" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F155" s="6"/>
+    </row>
+    <row r="156" spans="2:9" s="5" customFormat="1">
+      <c r="B156" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H156" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" s="5" customFormat="1">
+      <c r="B157" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G157" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H157" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" s="5" customFormat="1">
+      <c r="B158" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H158" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" s="5" customFormat="1">
+      <c r="B159" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G159" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H159" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" s="5" customFormat="1">
+      <c r="B160" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" s="5" customFormat="1">
+      <c r="B161" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H161" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" s="5" customFormat="1">
+      <c r="B162" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F162" s="6"/>
+    </row>
+    <row r="163" spans="2:8" s="5" customFormat="1">
+      <c r="B163" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F163" s="6"/>
+    </row>
+    <row r="166" spans="2:8">
+      <c r="B166" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8">
+      <c r="B167" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="146" spans="2:6" s="5" customFormat="1">
-      <c r="B146" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F146" s="6"/>
-    </row>
-    <row r="147" spans="2:6" s="5" customFormat="1">
-      <c r="B147" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F147" s="6"/>
-    </row>
-    <row r="148" spans="2:6" s="5" customFormat="1">
-      <c r="B148" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F148" s="6"/>
-    </row>
-    <row r="149" spans="2:6" s="5" customFormat="1">
-      <c r="B149" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F149" s="6"/>
-    </row>
-    <row r="151" spans="2:6">
-      <c r="B151" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="152" spans="2:6">
-      <c r="B152" s="2" t="s">
+    <row r="168" spans="2:8">
+      <c r="B168" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8">
+      <c r="B169" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8">
+      <c r="B170" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8">
+      <c r="B171" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="153" spans="2:6">
-      <c r="B153" s="2" t="s">
+    <row r="172" spans="2:8">
+      <c r="B172" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="154" spans="2:6">
-      <c r="B154" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="155" spans="2:6">
-      <c r="B155" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="156" spans="2:6">
-      <c r="B156" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="157" spans="2:6">
-      <c r="B157" s="2" t="s">
-        <v>125</v>
+    <row r="174" spans="2:8">
+      <c r="B174" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8">
+      <c r="B175" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8">
+      <c r="B176" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/table_partition/table_partition調査.xlsx
+++ b/table_partition/table_partition調査.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F782C42C-0714-425A-B7C6-434C09181BD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F82265-F547-4EEE-8A99-33F38D733191}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="180">
   <si>
     <t>1)DB作成</t>
     <rPh sb="4" eb="6">
@@ -878,12 +878,165 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>パーティション自身を含む、与えられたパーティションの先祖リレーションを列挙します。 リレーションが存在しない、あるいはパーティションでない、もしくはパーティション化テーブルでない場合は行を返しません。</t>
+  </si>
+  <si>
+    <t>1行1パーティションで与えられたパーティション化テーブルあるいはパーティション化インデックスのパーティションツリー内のテーブルあるいはインデックスの情報を表示します。 提供される情報にはパーティションOID、その直接の親のOID、パーティションが葉かどうかを示す真偽値、階層内のレベルを表す整数が含まれます。 レベル値は与えられたテーブルあるいはインデックスがパーティションツリーの根としての役割を持つことを表す0で始まり、1ならその直下のパーティション、2ならそのまた下のパーティションなどとなります。 リレーションが存在しない、あるいはパーティションでない、もしくはパーティション化テーブルでない場合は行を返しません。</t>
+  </si>
+  <si>
+    <t>説明</t>
+  </si>
+  <si>
+    <t>関数</t>
+  </si>
+  <si>
+    <t>表9.93 パーティション情報関数</t>
+  </si>
+  <si>
+    <r>
+      <t>pg_partition_tree ( regclass ) → setof record ( </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>relid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> regclass, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>parentrelid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> regclass, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>isleaf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> boolean, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>level</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t> integer )</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>与えられたリレーションが所属するパーティションツリーの最上位の親を返します。 リレーションが存在しない、あるいはパーティションでない、もしくはパーティション化テーブルでない場合はNULLを返します。</t>
+  </si>
+  <si>
+    <t>16)パーティション情報関数の動作確認</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(3 行)</t>
+  </si>
+  <si>
+    <t>pg_partition_ancestors ( regclass ) → setof regclass</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pg_partition_root ( regclass ) → regclass</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p 5432 -d testdb -c "select pg_partition_tree('accounts_tbl'),pg_partition_ancestors('accounts_tbl'),pg_partition_root('accounts_tbl');"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           pg_partition_tree           | pg_partition_ancestors | pg_partition_root</t>
+  </si>
+  <si>
+    <t>---------------------------------------+------------------------+-------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (accounts_tbl,,f,0)                   | accounts_tbl           | accounts_tbl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (interval_half_year,accounts_tbl,t,1) |                        | accounts_tbl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (interval_year,accounts_tbl,t,1)      |                        | accounts_tbl</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -951,8 +1104,39 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -971,8 +1155,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0ECEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -995,11 +1197,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA7C6DF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA7C6DF"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA7C6DF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA7C6DF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA7C6DF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA7C6DF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1031,6 +1259,27 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1312,10 +1561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F26F7EB-7B22-4BC6-9C6E-17EEF59BEDFB}">
-  <dimension ref="B1:K176"/>
+  <dimension ref="B1:K195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A191" sqref="A184:XFD191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2462,53 +2711,145 @@
       </c>
       <c r="F163" s="6"/>
     </row>
+    <row r="165" spans="2:8" ht="45.75" thickBot="1">
+      <c r="B165" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
     <row r="166" spans="2:8">
-      <c r="B166" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="167" spans="2:8">
-      <c r="B167" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="168" spans="2:8">
-      <c r="B168" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="169" spans="2:8">
-      <c r="B169" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="170" spans="2:8">
-      <c r="B170" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="171" spans="2:8">
-      <c r="B171" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="172" spans="2:8">
-      <c r="B172" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="174" spans="2:8">
-      <c r="B174" s="2" t="s">
-        <v>160</v>
+      <c r="B166" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B167" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" ht="71.25">
+      <c r="B168" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" ht="328.5" thickBot="1">
+      <c r="B169" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" ht="28.5">
+      <c r="B170" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" ht="114.75" thickBot="1">
+      <c r="B171" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" ht="28.5">
+      <c r="B172" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" ht="100.5" thickBot="1">
+      <c r="B173" s="18" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="175" spans="2:8">
       <c r="B175" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" s="5" customFormat="1">
+      <c r="B176" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F176" s="6"/>
+    </row>
+    <row r="177" spans="2:6" s="5" customFormat="1">
+      <c r="B177" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F177" s="6"/>
+    </row>
+    <row r="178" spans="2:6" s="5" customFormat="1">
+      <c r="B178" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F178" s="6"/>
+    </row>
+    <row r="179" spans="2:6" s="5" customFormat="1">
+      <c r="B179" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F179" s="6"/>
+    </row>
+    <row r="180" spans="2:6" s="5" customFormat="1">
+      <c r="B180" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F180" s="6"/>
+    </row>
+    <row r="181" spans="2:6" s="5" customFormat="1">
+      <c r="B181" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F181" s="6"/>
+    </row>
+    <row r="182" spans="2:6" s="5" customFormat="1">
+      <c r="B182" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F182" s="6"/>
+    </row>
+    <row r="185" spans="2:6">
+      <c r="B185" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6">
+      <c r="B186" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6">
+      <c r="B187" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6">
+      <c r="B188" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6">
+      <c r="B189" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6">
+      <c r="B190" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6">
+      <c r="B191" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="176" spans="2:8">
-      <c r="B176" s="2" t="s">
+    <row r="195" spans="2:2">
+      <c r="B195" s="2" t="s">
         <v>161</v>
       </c>
     </row>
